--- a/output2.xlsx
+++ b/output2.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.178484862</v>
+        <v>2.629440118</v>
       </c>
       <c r="B2" t="n">
-        <v>5.284154363214922</v>
+        <v>3.371496405433669</v>
       </c>
       <c r="C2" t="n">
-        <v>3.072815360785079</v>
+        <v>1.887383830566331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,83 +471,83 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.253302451</v>
+        <v>1.658511469</v>
       </c>
       <c r="B3" t="n">
-        <v>12.19858166732604</v>
+        <v>3.057927785933669</v>
       </c>
       <c r="C3" t="n">
-        <v>9.987242664896193</v>
+        <v>1.573815211066331</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.550621089</v>
+        <v>0.797594613</v>
       </c>
       <c r="B4" t="n">
-        <v>8.697642701296893</v>
+        <v>1.792697048017003</v>
       </c>
       <c r="C4" t="n">
-        <v>6.486303698867048</v>
+        <v>0.3085844731496643</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.316362988</v>
+        <v>0.168281532</v>
       </c>
       <c r="B5" t="n">
-        <v>6.910511870645817</v>
+        <v>1.081117024965927</v>
       </c>
       <c r="C5" t="n">
-        <v>4.699172868215974</v>
+        <v>-0.4029955499014111</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.52768641</v>
+        <v>0.126853214</v>
       </c>
       <c r="B6" t="n">
-        <v>5.935632063580463</v>
+        <v>0.9110789452125152</v>
       </c>
       <c r="C6" t="n">
-        <v>3.724293061150619</v>
+        <v>-0.5730336296548231</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.985252252</v>
+        <v>0.41030858</v>
       </c>
       <c r="B7" t="n">
-        <v>5.435613005562221</v>
+        <v>1.104169471957997</v>
       </c>
       <c r="C7" t="n">
-        <v>3.224274003132377</v>
+        <v>-0.3799431029093414</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.549408244</v>
+        <v>0.23504592</v>
       </c>
       <c r="B8" t="n">
-        <v>5.23808035395427</v>
+        <v>1.00250915407819</v>
       </c>
       <c r="C8" t="n">
-        <v>3.026741351524426</v>
+        <v>-0.481603420789148</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.690254995</v>
+        <v>0.119698651</v>
       </c>
       <c r="B9" t="n">
-        <v>5.00309859814255</v>
+        <v>1.095227232215905</v>
       </c>
       <c r="C9" t="n">
-        <v>3.04920637262112</v>
+        <v>-0.799531126641331</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.776038904</v>
+        <v>0.192142673</v>
       </c>
       <c r="B10" t="n">
-        <v>4.84777990520017</v>
+        <v>1.157888757185968</v>
       </c>
       <c r="C10" t="n">
-        <v>2.626960187274177</v>
+        <v>-0.7913210778398239</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.033211337</v>
+        <v>0.015983891</v>
       </c>
       <c r="B11" t="n">
-        <v>4.750763323131617</v>
+        <v>1.085947051705235</v>
       </c>
       <c r="C11" t="n">
-        <v>2.408431914890529</v>
+        <v>-0.9870594272881947</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.038770885</v>
+        <v>-0.31900446</v>
       </c>
       <c r="B12" t="n">
-        <v>4.870171572992907</v>
+        <v>1.512357070413007</v>
       </c>
       <c r="C12" t="n">
-        <v>2.489952638852615</v>
+        <v>-0.6610743942637824</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.729347375</v>
+        <v>-0.237138068</v>
       </c>
       <c r="B13" t="n">
-        <v>4.655375973866618</v>
+        <v>1.380077805304974</v>
       </c>
       <c r="C13" t="n">
-        <v>2.296400932447098</v>
+        <v>-0.8134695702153216</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -625,27 +625,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.886488952</v>
+        <v>-0.017184394</v>
       </c>
       <c r="B14" t="n">
-        <v>4.296541262252969</v>
+        <v>1.285381191002671</v>
       </c>
       <c r="C14" t="n">
-        <v>1.982491334027944</v>
+        <v>-0.8459605737679819</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.9060845</v>
+        <v>0.518896299</v>
       </c>
       <c r="B15" t="n">
-        <v>4.252254591404878</v>
+        <v>1.315794278815039</v>
       </c>
       <c r="C15" t="n">
-        <v>1.929109792199788</v>
+        <v>-0.7511937967494888</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.357082625</v>
+        <v>0.827308995</v>
       </c>
       <c r="B16" t="n">
-        <v>4.204148932435819</v>
+        <v>1.410271793009289</v>
       </c>
       <c r="C16" t="n">
-        <v>2.087661602947886</v>
+        <v>-0.6197177761125624</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.38999441</v>
+        <v>0.968318755</v>
       </c>
       <c r="B17" t="n">
-        <v>4.223950651204722</v>
+        <v>1.538481142475704</v>
       </c>
       <c r="C17" t="n">
-        <v>2.16832333587488</v>
+        <v>-0.5120716865371855</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.630431859</v>
+        <v>1.634145868</v>
       </c>
       <c r="B18" t="n">
-        <v>4.308163540565149</v>
+        <v>1.777397981162135</v>
       </c>
       <c r="C18" t="n">
-        <v>2.261830287752411</v>
+        <v>-0.2922829376448586</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.853844409</v>
+        <v>1.989590574</v>
       </c>
       <c r="B19" t="n">
-        <v>4.432058914263232</v>
+        <v>2.034704574171196</v>
       </c>
       <c r="C19" t="n">
-        <v>2.36964808539932</v>
+        <v>-0.04162564590915818</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.933884264</v>
+        <v>1.036527446</v>
       </c>
       <c r="B20" t="n">
-        <v>4.551460667295129</v>
+        <v>2.027161948985573</v>
       </c>
       <c r="C20" t="n">
-        <v>2.46657628116059</v>
+        <v>-0.01785394230711512</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.920675883</v>
+        <v>0.726896568</v>
       </c>
       <c r="B21" t="n">
-        <v>4.621506357421272</v>
+        <v>1.893594405880599</v>
       </c>
       <c r="C21" t="n">
-        <v>2.563114132010349</v>
+        <v>0.003314756212008052</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.828789303</v>
+        <v>0.960161653</v>
       </c>
       <c r="B22" t="n">
-        <v>4.655127087531996</v>
+        <v>1.73092548619386</v>
       </c>
       <c r="C22" t="n">
-        <v>2.624965600823149</v>
+        <v>0.1707100982318067</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.670892149</v>
+        <v>0.419871715</v>
       </c>
       <c r="B23" t="n">
-        <v>4.425793166114291</v>
+        <v>1.575331274903095</v>
       </c>
       <c r="C23" t="n">
-        <v>2.463756142660707</v>
+        <v>0.1123471534773155</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.72570721</v>
+        <v>-0.196527012</v>
       </c>
       <c r="B24" t="n">
-        <v>4.045803566960181</v>
+        <v>1.360448354713277</v>
       </c>
       <c r="C24" t="n">
-        <v>2.152035628239556</v>
+        <v>-0.09138749880065045</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -779,41 +779,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.438396714</v>
+        <v>-0.615544613</v>
       </c>
       <c r="B25" t="n">
-        <v>3.901652331487368</v>
+        <v>1.108350214564926</v>
       </c>
       <c r="C25" t="n">
-        <v>2.030724097804248</v>
+        <v>-0.3416919039757687</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.140722918</v>
+        <v>-0.530709195</v>
       </c>
       <c r="B26" t="n">
-        <v>3.940831590471613</v>
+        <v>0.9268056822155862</v>
       </c>
       <c r="C26" t="n">
-        <v>2.061623469743952</v>
+        <v>-0.5271492054717027</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.833031266</v>
+        <v>0.041184144</v>
       </c>
       <c r="B27" t="n">
-        <v>4.071999866808596</v>
+        <v>0.9221047089273557</v>
       </c>
       <c r="C27" t="n">
-        <v>2.264185325196614</v>
+        <v>-0.5860982402777586</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.836193073</v>
+        <v>0.180442634</v>
       </c>
       <c r="B28" t="n">
-        <v>4.043163278909941</v>
+        <v>0.9374608369836419</v>
       </c>
       <c r="C28" t="n">
-        <v>2.560909817102061</v>
+        <v>-0.5964665486559795</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.645816752</v>
+        <v>0.283805977</v>
       </c>
       <c r="B29" t="n">
-        <v>4.015391129880326</v>
+        <v>0.8854480059014107</v>
       </c>
       <c r="C29" t="n">
-        <v>2.726460550269683</v>
+        <v>-0.4990423460720606</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.161573892</v>
+        <v>0.678267537</v>
       </c>
       <c r="B30" t="n">
-        <v>3.940997742654524</v>
+        <v>0.8999125232623926</v>
       </c>
       <c r="C30" t="n">
-        <v>2.716983374855972</v>
+        <v>-0.3191802747679047</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.206028144</v>
+        <v>0.538691634</v>
       </c>
       <c r="B31" t="n">
-        <v>3.902137552503064</v>
+        <v>0.9261995250756482</v>
       </c>
       <c r="C31" t="n">
-        <v>2.706597635597543</v>
+        <v>-0.2460139554317672</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.835825629</v>
+        <v>-0.19214003</v>
       </c>
       <c r="B32" t="n">
-        <v>3.977181819301161</v>
+        <v>0.8798677884297166</v>
       </c>
       <c r="C32" t="n">
-        <v>2.84434732370484</v>
+        <v>-0.4127863928663182</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.359344451</v>
+        <v>0.018631287</v>
       </c>
       <c r="B33" t="n">
-        <v>3.928493380759435</v>
+        <v>0.939069573631247</v>
       </c>
       <c r="C33" t="n">
-        <v>2.872451405437701</v>
+        <v>-0.5580201038945364</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.754367851</v>
+        <v>0.420826825</v>
       </c>
       <c r="B34" t="n">
-        <v>3.790491685801537</v>
+        <v>1.11799888716718</v>
       </c>
       <c r="C34" t="n">
-        <v>2.751847372703207</v>
+        <v>-0.6447701558296631</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.293084486</v>
+        <v>0.459133419</v>
       </c>
       <c r="B35" t="n">
-        <v>3.79834015405278</v>
+        <v>1.175692813052489</v>
       </c>
       <c r="C35" t="n">
-        <v>2.752769334287272</v>
+        <v>-0.6134113052602657</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.223004948</v>
+        <v>0.439643315</v>
       </c>
       <c r="B36" t="n">
-        <v>3.794207489519887</v>
+        <v>1.204063831725551</v>
       </c>
       <c r="C36" t="n">
-        <v>2.735873550199989</v>
+        <v>-0.5783555705439309</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,27 +947,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.380222573</v>
+        <v>0.346795864</v>
       </c>
       <c r="B37" t="n">
-        <v>3.622079730048203</v>
+        <v>1.235898278081686</v>
       </c>
       <c r="C37" t="n">
-        <v>2.55395923770657</v>
+        <v>-0.5966089162172392</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.891974172</v>
+        <v>0.532802765</v>
       </c>
       <c r="B38" t="n">
-        <v>3.584632155062801</v>
+        <v>1.328785082617279</v>
       </c>
       <c r="C38" t="n">
-        <v>2.512968324145132</v>
+        <v>-0.6042103457764928</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.685074052</v>
+        <v>0.743793226</v>
       </c>
       <c r="B39" t="n">
-        <v>3.717244628216871</v>
+        <v>1.43922842174018</v>
       </c>
       <c r="C39" t="n">
-        <v>2.634918246490535</v>
+        <v>-0.5620196410168894</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.96550121</v>
+        <v>0.28765551</v>
       </c>
       <c r="B40" t="n">
-        <v>3.753934003320051</v>
+        <v>1.411402029235494</v>
       </c>
       <c r="C40" t="n">
-        <v>2.513982782663415</v>
+        <v>-0.5945828345979214</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.690266547</v>
+        <v>-0.201406223</v>
       </c>
       <c r="B41" t="n">
-        <v>3.711383096685643</v>
+        <v>1.294185306314368</v>
       </c>
       <c r="C41" t="n">
-        <v>2.379033357060042</v>
+        <v>-0.7213248674851129</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.063025064</v>
+        <v>-0.738482148</v>
       </c>
       <c r="B42" t="n">
-        <v>3.729196760685157</v>
+        <v>1.098716773436534</v>
       </c>
       <c r="C42" t="n">
-        <v>2.368347185836426</v>
+        <v>-0.9358648811602168</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,41 +1031,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.880026248</v>
+        <v>-1.196568871</v>
       </c>
       <c r="B43" t="n">
-        <v>3.697202266985331</v>
+        <v>0.8469892630994987</v>
       </c>
       <c r="C43" t="n">
-        <v>2.332837646823929</v>
+        <v>-1.195378789288431</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.516034483</v>
+        <v>-1.562108912</v>
       </c>
       <c r="B44" t="n">
-        <v>3.602593985714972</v>
+        <v>0.5632785644087199</v>
       </c>
       <c r="C44" t="n">
-        <v>2.227838153931267</v>
+        <v>-1.466871535348326</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.633651612</v>
+        <v>-0.748749048</v>
       </c>
       <c r="B45" t="n">
-        <v>3.556436283240799</v>
+        <v>0.4921646939623767</v>
       </c>
       <c r="C45" t="n">
-        <v>2.161363941011431</v>
+        <v>-1.514545157320315</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.564525999</v>
+        <v>-0.003770454</v>
       </c>
       <c r="B46" t="n">
-        <v>3.473123441444026</v>
+        <v>0.5661973349857525</v>
       </c>
       <c r="C46" t="n">
-        <v>2.126922008613979</v>
+        <v>-1.385601046387676</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.181333048</v>
+        <v>0.626203276</v>
       </c>
       <c r="B47" t="n">
-        <v>3.349833444307852</v>
+        <v>0.7642157342770279</v>
       </c>
       <c r="C47" t="n">
-        <v>2.002727511362536</v>
+        <v>-1.169242954085199</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.749467172</v>
+        <v>0.385026952</v>
       </c>
       <c r="B48" t="n">
-        <v>3.383888667854713</v>
+        <v>0.8866407505843827</v>
       </c>
       <c r="C48" t="n">
-        <v>1.997947781563256</v>
+        <v>-1.056645194152109</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,27 +1115,27 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.712480746</v>
+        <v>-0.238594472</v>
       </c>
       <c r="B49" t="n">
-        <v>3.600159651625481</v>
+        <v>0.8717685921026381</v>
       </c>
       <c r="C49" t="n">
-        <v>2.190310919154314</v>
+        <v>-1.103211305876028</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.35446666</v>
+        <v>-0.861576687</v>
       </c>
       <c r="B50" t="n">
-        <v>3.699656701697164</v>
+        <v>0.7321058670918279</v>
       </c>
       <c r="C50" t="n">
-        <v>2.274509696169739</v>
+        <v>-1.261896035606995</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.856929145</v>
+        <v>-1.037887424</v>
       </c>
       <c r="B51" t="n">
-        <v>3.713785118531328</v>
+        <v>0.5516345789279523</v>
       </c>
       <c r="C51" t="n">
-        <v>2.208318914703298</v>
+        <v>-1.390626096409205</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.087320941</v>
+        <v>-0.343188779</v>
       </c>
       <c r="B52" t="n">
-        <v>3.655217713926604</v>
+        <v>0.4748239362261371</v>
       </c>
       <c r="C52" t="n">
-        <v>1.917389898517416</v>
+        <v>-1.283292313298485</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.381749246</v>
+        <v>-0.025350328</v>
       </c>
       <c r="B53" t="n">
-        <v>3.585342383114578</v>
+        <v>0.5356958322889325</v>
       </c>
       <c r="C53" t="n">
-        <v>1.825441927084255</v>
+        <v>-1.192609280785709</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.2218373</v>
+        <v>0.099226485</v>
       </c>
       <c r="B54" t="n">
-        <v>3.696914719223811</v>
+        <v>0.669133019735046</v>
       </c>
       <c r="C54" t="n">
-        <v>1.920449158517137</v>
+        <v>-1.154971934403911</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.525029409</v>
+        <v>-0.410421942</v>
       </c>
       <c r="B55" t="n">
-        <v>3.633319013232475</v>
+        <v>0.660089233546911</v>
       </c>
       <c r="C55" t="n">
-        <v>1.870583189262586</v>
+        <v>-1.212929533772542</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.134523104</v>
+        <v>-0.918159454</v>
       </c>
       <c r="B56" t="n">
-        <v>3.494596297461352</v>
+        <v>0.5135587192518358</v>
       </c>
       <c r="C56" t="n">
-        <v>1.762333551093098</v>
+        <v>-1.323095941553851</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.502060768</v>
+        <v>-1.396637016</v>
       </c>
       <c r="B57" t="n">
-        <v>3.472597297562452</v>
+        <v>0.2974843832318186</v>
       </c>
       <c r="C57" t="n">
-        <v>1.733770699306762</v>
+        <v>-1.503770451887097</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.073195927</v>
+        <v>-1.395087163</v>
       </c>
       <c r="B58" t="n">
-        <v>3.542191648612923</v>
+        <v>0.140264327884002</v>
       </c>
       <c r="C58" t="n">
-        <v>1.85218168241162</v>
+        <v>-1.663328996175786</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.765389057</v>
+        <v>-1.108115605</v>
       </c>
       <c r="B59" t="n">
-        <v>3.727251682628605</v>
+        <v>0.06330621383484714</v>
       </c>
       <c r="C59" t="n">
-        <v>2.094403628128105</v>
+        <v>-1.725004522429892</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.710074659</v>
+        <v>-0.140440831</v>
       </c>
       <c r="B60" t="n">
-        <v>3.72509150903072</v>
+        <v>0.186986096238034</v>
       </c>
       <c r="C60" t="n">
-        <v>2.016262449347818</v>
+        <v>-1.572520546489218</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,27 +1283,27 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.933698596</v>
+        <v>0.511445244</v>
       </c>
       <c r="B61" t="n">
-        <v>3.549356643585428</v>
+        <v>0.4250423966982495</v>
       </c>
       <c r="C61" t="n">
-        <v>1.817205387150445</v>
+        <v>-1.32889112111797</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.158563582</v>
+        <v>0.216646159</v>
       </c>
       <c r="B62" t="n">
-        <v>3.42126345255093</v>
+        <v>0.5629498677480858</v>
       </c>
       <c r="C62" t="n">
-        <v>1.735411347516772</v>
+        <v>-1.199370055817431</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.939912138</v>
+        <v>-0.143039168</v>
       </c>
       <c r="B63" t="n">
-        <v>3.293864574239</v>
+        <v>0.5904610510856173</v>
       </c>
       <c r="C63" t="n">
-        <v>1.607439870548645</v>
+        <v>-1.156812800018168</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.417135142</v>
+        <v>-0.547217917</v>
       </c>
       <c r="B64" t="n">
-        <v>3.07670119634232</v>
+        <v>0.5349235190848638</v>
       </c>
       <c r="C64" t="n">
-        <v>1.411196091912948</v>
+        <v>-1.206892167901908</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.428824584</v>
+        <v>-0.857678783</v>
       </c>
       <c r="B65" t="n">
-        <v>3.113035163610367</v>
+        <v>0.4757339935654316</v>
       </c>
       <c r="C65" t="n">
-        <v>1.44881254701328</v>
+        <v>-1.356380556808316</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.03582255</v>
+        <v>-0.958601953</v>
       </c>
       <c r="B66" t="n">
-        <v>3.247939598511037</v>
+        <v>0.4196736641049963</v>
       </c>
       <c r="C66" t="n">
-        <v>1.615867741622385</v>
+        <v>-1.507631800004571</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.885340045</v>
+        <v>-0.413903327</v>
       </c>
       <c r="B67" t="n">
-        <v>3.128222824326509</v>
+        <v>0.4423048766239732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.516958977950805</v>
+        <v>-1.478232695241259</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.45672665</v>
+        <v>-0.6221860380000001</v>
       </c>
       <c r="B68" t="n">
-        <v>2.94568995713569</v>
+        <v>0.3726063398883546</v>
       </c>
       <c r="C68" t="n">
-        <v>1.353146033374909</v>
+        <v>-1.450223023380468</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.596858616</v>
+        <v>-1.42372677</v>
       </c>
       <c r="B69" t="n">
-        <v>2.792080200163917</v>
+        <v>0.1524756575332493</v>
       </c>
       <c r="C69" t="n">
-        <v>1.285731981817112</v>
+        <v>-1.584059803335545</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.654124032</v>
+        <v>-1.845881392</v>
       </c>
       <c r="B70" t="n">
-        <v>2.564536340614476</v>
+        <v>-0.06056063299170467</v>
       </c>
       <c r="C70" t="n">
-        <v>1.359362986112309</v>
+        <v>-1.823059333428507</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.725477321</v>
+        <v>-1.997137642</v>
       </c>
       <c r="B71" t="n">
-        <v>2.503038437271655</v>
+        <v>-0.27648579451707</v>
       </c>
       <c r="C71" t="n">
-        <v>1.326271936945118</v>
+        <v>-2.029265304880969</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.89569897</v>
+        <v>-1.287404159</v>
       </c>
       <c r="B72" t="n">
-        <v>2.484365880539634</v>
+        <v>-0.3600572634464234</v>
       </c>
       <c r="C72" t="n">
-        <v>1.337362005835623</v>
+        <v>-1.999505286755767</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.860195387</v>
+        <v>-1.175574835</v>
       </c>
       <c r="B73" t="n">
-        <v>2.467774369673883</v>
+        <v>-0.4272581061797871</v>
       </c>
       <c r="C73" t="n">
-        <v>1.333686092091913</v>
+        <v>-1.930621867804769</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.638875465</v>
+        <v>-1.603787977</v>
       </c>
       <c r="B74" t="n">
-        <v>2.414106178641331</v>
+        <v>-0.5637341719108233</v>
       </c>
       <c r="C74" t="n">
-        <v>1.282612367946817</v>
+        <v>-1.964085012394172</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.758251736</v>
+        <v>-1.045598391</v>
       </c>
       <c r="B75" t="n">
-        <v>2.377768786656227</v>
+        <v>-0.5407356013323218</v>
       </c>
       <c r="C75" t="n">
-        <v>1.282906742584996</v>
+        <v>-1.899759096626015</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.913635304</v>
+        <v>-0.482254834</v>
       </c>
       <c r="B76" t="n">
-        <v>2.327586102128012</v>
+        <v>-0.3559205108093318</v>
       </c>
       <c r="C76" t="n">
-        <v>1.366408444661525</v>
+        <v>-1.789377165240346</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.944960588</v>
+        <v>-0.763664027</v>
       </c>
       <c r="B77" t="n">
-        <v>2.343413281553019</v>
+        <v>-0.2425958150132062</v>
       </c>
       <c r="C77" t="n">
-        <v>1.389766592768906</v>
+        <v>-1.779107931295199</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.783240079</v>
+        <v>-0.597533106</v>
       </c>
       <c r="B78" t="n">
-        <v>2.230538355577766</v>
+        <v>-0.1208318905095984</v>
       </c>
       <c r="C78" t="n">
-        <v>1.469301574329254</v>
+        <v>-1.735544343231883</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,27 +1535,27 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.421817028</v>
+        <v>0.031570349</v>
       </c>
       <c r="B79" t="n">
-        <v>2.085892352696997</v>
+        <v>0.08408530406812043</v>
       </c>
       <c r="C79" t="n">
-        <v>1.442706397701167</v>
+        <v>-1.55655814086289</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.41642306</v>
+        <v>0.183919299</v>
       </c>
       <c r="B80" t="n">
-        <v>2.012960429158424</v>
+        <v>0.2638786627437354</v>
       </c>
       <c r="C80" t="n">
-        <v>1.376487792086885</v>
+        <v>-1.368289204450679</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.466791719</v>
+        <v>0.189867614</v>
       </c>
       <c r="B81" t="n">
-        <v>1.954253792385726</v>
+        <v>0.4055326991724273</v>
       </c>
       <c r="C81" t="n">
-        <v>1.344021470599635</v>
+        <v>-1.213114081693465</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.352510884</v>
+        <v>-0.04097959</v>
       </c>
       <c r="B82" t="n">
-        <v>1.991366342153952</v>
+        <v>0.4617228784853881</v>
       </c>
       <c r="C82" t="n">
-        <v>1.188258220157236</v>
+        <v>-1.124179818450917</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.602155021</v>
+        <v>-0.211162647</v>
       </c>
       <c r="B83" t="n">
-        <v>2.040741141418647</v>
+        <v>0.507816007758083</v>
       </c>
       <c r="C83" t="n">
-        <v>1.143820516886131</v>
+        <v>-1.122246617987433</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,27 +1605,27 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.283117643</v>
+        <v>-0.309447456</v>
       </c>
       <c r="B84" t="n">
-        <v>2.186884276506512</v>
+        <v>0.6383265599515355</v>
       </c>
       <c r="C84" t="n">
-        <v>1.274012109837104</v>
+        <v>-1.253650030543092</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.055104952</v>
+        <v>-1.064773341</v>
       </c>
       <c r="B85" t="n">
-        <v>2.2908003438335</v>
+        <v>0.5541014840336038</v>
       </c>
       <c r="C85" t="n">
-        <v>1.299958746981211</v>
+        <v>-1.472269599098537</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,41 +1633,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.542306221</v>
+        <v>-1.772107268</v>
       </c>
       <c r="B86" t="n">
-        <v>2.29402657879585</v>
+        <v>0.2971639508794396</v>
       </c>
       <c r="C86" t="n">
-        <v>1.19550318166984</v>
+        <v>-1.740541353172141</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.783042373</v>
+        <v>-0.415290131</v>
       </c>
       <c r="B87" t="n">
-        <v>2.145097587634961</v>
+        <v>0.3528165321356159</v>
       </c>
       <c r="C87" t="n">
-        <v>0.959743168155834</v>
+        <v>-1.67363450580212</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.965546412</v>
+        <v>0.343584122</v>
       </c>
       <c r="B88" t="n">
-        <v>2.098540117162664</v>
+        <v>0.5204720680171346</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7715510514001439</v>
+        <v>-1.439692796662281</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,27 +1675,27 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.428854778</v>
+        <v>0.289256053</v>
       </c>
       <c r="B89" t="n">
-        <v>2.300202968717485</v>
+        <v>0.678518108881615</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9674118785111314</v>
+        <v>-1.298192269709793</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.441650436</v>
+        <v>0.590875206</v>
       </c>
       <c r="B90" t="n">
-        <v>2.462501450064563</v>
+        <v>0.8828159141090619</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7282506019360557</v>
+        <v>-1.142205159517217</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,27 +1703,27 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.150936023</v>
+        <v>0.973109733</v>
       </c>
       <c r="B91" t="n">
-        <v>2.200065124069321</v>
+        <v>1.122921856015141</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2921621070059772</v>
+        <v>-0.9411893583047967</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.419251725</v>
+        <v>0.795303038</v>
       </c>
       <c r="B92" t="n">
-        <v>2.242482884350316</v>
+        <v>1.273122823154492</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3189995906150314</v>
+        <v>-0.8096156093585644</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.215328705</v>
+        <v>0.679056229</v>
       </c>
       <c r="B93" t="n">
-        <v>2.445003404530454</v>
+        <v>1.358873731794203</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4903140578957219</v>
+        <v>-0.7164454689402204</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.799754049</v>
+        <v>0.659164025</v>
       </c>
       <c r="B94" t="n">
-        <v>2.505661702220747</v>
+        <v>1.396911601172781</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5624938874492247</v>
+        <v>-0.6193033807582899</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.882084887</v>
+        <v>0.620480575</v>
       </c>
       <c r="B95" t="n">
-        <v>2.821113338527151</v>
+        <v>1.033340485630294</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3862450881169961</v>
+        <v>-0.1630616792266901</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.146261779</v>
+        <v>0.578372912</v>
       </c>
       <c r="B96" t="n">
-        <v>2.929629851730196</v>
+        <v>1.061987187407742</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4947616013200413</v>
+        <v>-0.1344149774492421</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.849355674</v>
+        <v>0.655445625</v>
       </c>
       <c r="B97" t="n">
-        <v>2.957061841238815</v>
+        <v>1.100319091430955</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5221935908286601</v>
+        <v>-0.09608307342602873</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.778640865</v>
+        <v>0.7921957549999999</v>
       </c>
       <c r="B98" t="n">
-        <v>2.964864471035172</v>
+        <v>1.158334640653545</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5299962206250171</v>
+        <v>-0.0380675242034394</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.117224592</v>
+        <v>1.036933591</v>
       </c>
       <c r="B99" t="n">
-        <v>3.038823320292693</v>
+        <v>1.253694647238886</v>
       </c>
       <c r="C99" t="n">
-        <v>0.603955069882538</v>
+        <v>0.05729248238190188</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.466016953</v>
+        <v>1.060901508</v>
       </c>
       <c r="B100" t="n">
-        <v>3.167748871907998</v>
+        <v>1.334776235897453</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7328806214978432</v>
+        <v>0.1383740710404688</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.819658416</v>
+        <v>0.980003713</v>
       </c>
       <c r="B101" t="n">
-        <v>3.341617605802831</v>
+        <v>1.383461947813578</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9067493553926766</v>
+        <v>0.1870597829565941</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -474,13 +474,13 @@
         <v>1.658511469</v>
       </c>
       <c r="B3" t="n">
-        <v>3.057927785933669</v>
+        <v>8.164011839711451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.573815211066331</v>
+        <v>6.679899264844112</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.797594613</v>
       </c>
       <c r="B4" t="n">
-        <v>1.792697048017003</v>
+        <v>5.578301668346088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3085844731496643</v>
+        <v>4.09418909347875</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>0.168281532</v>
       </c>
       <c r="B5" t="n">
-        <v>1.081117024965927</v>
+        <v>4.02729603525604</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4029955499014111</v>
+        <v>2.543183460388702</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>0.126853214</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9110789452125152</v>
+        <v>3.064910976285037</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5730336296548231</v>
+        <v>1.580798401417699</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>0.41030858</v>
       </c>
       <c r="B7" t="n">
-        <v>1.104169471957997</v>
+        <v>2.510826004527336</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3799431029093414</v>
+        <v>1.026713429659998</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>0.23504592</v>
       </c>
       <c r="B8" t="n">
-        <v>1.00250915407819</v>
+        <v>2.117645445419682</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.481603420789148</v>
+        <v>0.633532870552344</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>0.119698651</v>
       </c>
       <c r="B9" t="n">
-        <v>1.095227232215905</v>
+        <v>2.021793938580081</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.799531126641331</v>
+        <v>0.1270355797228455</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -572,10 +572,10 @@
         <v>0.192142673</v>
       </c>
       <c r="B10" t="n">
-        <v>1.157888757185968</v>
+        <v>1.839654398375688</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7913210778398239</v>
+        <v>-0.1095554366501036</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0.015983891</v>
       </c>
       <c r="B11" t="n">
-        <v>1.085947051705235</v>
+        <v>1.716869996969377</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9870594272881947</v>
+        <v>-0.3561364820240527</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
